--- a/Andrew-annotations/BBBY_Q2_2019.xlsx
+++ b/Andrew-annotations/BBBY_Q2_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91FFA7B-1B1C-4CAE-9E4D-77BA258D2000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52362DE-CD65-4FD7-BE4A-88848AF4C4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="122" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -760,16 +760,16 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -801,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1217,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1246,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1304,16 +1304,16 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1336,16 +1336,16 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
